--- a/results/top_features_comparisonsxlsx.xlsx
+++ b/results/top_features_comparisonsxlsx.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjnun\Documents\Sync\Research\1_CANBIND Replication\teyden-git\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B900B-C225-4334-95F7-7A2EB464413B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812C184-E07E-4E0A-8CB8-A124D1DE92D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCF5F8-8225-4E3A-8674-346C5927BA06}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16872" xr2:uid="{81BCF5F8-8225-4E3A-8674-346C5927BA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>qids01_w2c__qstot</t>
   </si>
@@ -172,16 +173,61 @@
   </si>
   <si>
     <t>QIDS_SR_11_week2:::qids01_w2sr__vvwsf</t>
+  </si>
+  <si>
+    <t>qids01_w2sr__vintr</t>
+  </si>
+  <si>
+    <t>qids01_w2sr__vagit</t>
+  </si>
+  <si>
+    <t>qids01_w2sr__vslow</t>
+  </si>
+  <si>
+    <t>qids01_w2sr__vengy</t>
+  </si>
+  <si>
+    <t>wpai01__wpai04</t>
+  </si>
+  <si>
+    <t>wpai01__wpai_totalhrs</t>
+  </si>
+  <si>
+    <t>Top 30 - full STARD response</t>
+  </si>
+  <si>
+    <t>LAM_2_baseline:::wpai01__wpai_totalhrs</t>
+  </si>
+  <si>
+    <t>QIDS_SR_16_week2:::qids01_w2sr__vagit</t>
+  </si>
+  <si>
+    <t>QIDS_SR_15_week2:::qids01_w2sr__vslow</t>
+  </si>
+  <si>
+    <t>QIDS_SR_13_week2:::qids01_w2sr__vintr</t>
+  </si>
+  <si>
+    <t>QIDS_SR_14_week2:::qids01_w2sr__vengy</t>
+  </si>
+  <si>
+    <t>(Checked and there's no difference between sourcing from the full or overlapping datasets)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,8 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,23 +570,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C69FD-E640-4942-9DD5-CC3F1E6EECA4}">
-  <dimension ref="A6:I37"/>
+  <dimension ref="A6:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>1</v>
       </c>
@@ -549,8 +602,17 @@
       <c r="I8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D9">
         <f>D8+1</f>
         <v>2</v>
@@ -561,8 +623,18 @@
       <c r="I9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <f>Q8+1</f>
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D10">
         <f t="shared" ref="D10:D37" si="0">D9+1</f>
         <v>3</v>
@@ -573,8 +645,18 @@
       <c r="I10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q37" si="1">Q9+1</f>
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -585,8 +667,18 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -597,8 +689,18 @@
       <c r="I12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -609,8 +711,18 @@
       <c r="I13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -621,8 +733,18 @@
       <c r="I14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -633,8 +755,18 @@
       <c r="I15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -645,8 +777,18 @@
       <c r="I16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -666,8 +808,18 @@
       <c r="I17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -678,8 +830,18 @@
       <c r="I18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -690,8 +852,18 @@
       <c r="I19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="R19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -702,8 +874,18 @@
       <c r="I20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -714,8 +896,18 @@
       <c r="I21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -726,8 +918,18 @@
       <c r="I22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -738,8 +940,18 @@
       <c r="I23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -750,8 +962,18 @@
       <c r="I24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="R24" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -762,8 +984,18 @@
       <c r="I25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -774,8 +1006,18 @@
       <c r="I26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="R26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -786,8 +1028,18 @@
       <c r="I27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -798,8 +1050,18 @@
       <c r="I28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="R28" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -810,8 +1072,18 @@
       <c r="I29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -822,8 +1094,18 @@
       <c r="I30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -834,8 +1116,18 @@
       <c r="I31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -846,8 +1138,18 @@
       <c r="I32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -858,8 +1160,18 @@
       <c r="I33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="R33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -870,8 +1182,18 @@
       <c r="I34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -882,8 +1204,18 @@
       <c r="I35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="R35" t="s">
+        <v>15</v>
+      </c>
+      <c r="U35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -894,8 +1226,18 @@
       <c r="I36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -905,6 +1247,21 @@
       </c>
       <c r="I37" t="s">
         <v>33</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R37" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="R41" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
